--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_MEC_N_21.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_MEC_N_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\Mecenatúra\MEC_N_140840_VargaCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545DA6B-78AF-4E6B-BECB-A4C6C2D0E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DE0F5-BEE8-4841-B6A7-99B63B647528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="171">
   <si>
     <t>Fennmaradó 
 egyenleg</t>
@@ -227,9 +227,6 @@
     <t>(Hónap)</t>
   </si>
   <si>
-    <t>okmány</t>
-  </si>
-  <si>
     <t>MEGBÍZÁSOK</t>
   </si>
   <si>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>AZ ELSZÁMOLÁSBAN A KIFZETÉS DÁTUMÁT NÉHÁNY HELYEN MÉG JAVÍTANI KELL!</t>
+  </si>
+  <si>
+    <t>megbízás</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -2723,7 +2723,7 @@
       <c r="F1" s="87"/>
       <c r="G1" s="87"/>
       <c r="I1" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="130"/>
       <c r="K1" s="130"/>
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>16</v>
@@ -2772,7 +2772,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="I3" s="138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="130"/>
       <c r="K3" s="130"/>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="119">
         <v>15400000</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="119">
         <v>586000</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="119">
         <v>1114000</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="120"/>
       <c r="C7" s="121">
@@ -2916,10 +2916,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="119">
         <v>6300000</v>
@@ -2941,7 +2941,7 @@
         <v>248721</v>
       </c>
       <c r="I8" s="131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="132">
         <f>SUM(J4:J7)</f>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="123"/>
       <c r="C9" s="121">
@@ -3021,26 +3021,26 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +3049,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{4D63080B-7DBA-48CD-85E4-71FB61C987A6}"/>
+      <autoFilter ref="A3:L77" xr:uid="{44AF16D4-E83B-484F-ABE4-3EEBEE6171C3}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -3066,9 +3066,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:AM139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3098,39 +3098,39 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="S1" t="s">
         <v>164</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="178"/>
       <c r="C2" s="178"/>
       <c r="D2" s="178"/>
       <c r="E2" s="175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="133"/>
       <c r="G2" s="54"/>
@@ -3167,23 +3167,23 @@
         <v>29</v>
       </c>
       <c r="J3" s="103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K3" s="104"/>
       <c r="L3" s="104"/>
       <c r="M3" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="125"/>
       <c r="P3" s="105"/>
       <c r="Q3" s="147" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U3" s="157"/>
       <c r="V3" s="157"/>
@@ -3194,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>17</v>
@@ -3209,7 +3209,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="108" t="s">
         <v>25</v>
@@ -3218,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K4" s="110" t="s">
         <v>27</v>
@@ -3230,28 +3230,28 @@
         <v>2</v>
       </c>
       <c r="N4" s="126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P4" s="111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="148" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="V4" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="V4" s="158" t="s">
+      <c r="W4" s="158" t="s">
         <v>143</v>
-      </c>
-      <c r="W4" s="158" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3259,10 +3259,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>33</v>
@@ -3281,7 +3281,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="114" t="s">
         <v>22</v>
@@ -3290,40 +3290,37 @@
         <v>28</v>
       </c>
       <c r="M5" s="116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P5" s="117" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V5" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W5" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3361,16 +3358,16 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>10</v>
@@ -3412,10 +3409,7 @@
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -3426,16 +3420,16 @@
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>10</v>
@@ -3477,10 +3471,7 @@
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -3491,16 +3482,16 @@
     </row>
     <row r="9" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>10</v>
@@ -3542,10 +3533,7 @@
       </c>
       <c r="Q9" s="71"/>
       <c r="R9" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -3556,16 +3544,16 @@
     </row>
     <row r="10" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>10</v>
@@ -3607,10 +3595,7 @@
       </c>
       <c r="Q10" s="71"/>
       <c r="R10" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -3621,16 +3606,16 @@
     </row>
     <row r="11" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="62" t="s">
         <v>10</v>
@@ -3667,17 +3652,14 @@
         <v>0.13</v>
       </c>
       <c r="O11" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P11" s="71">
         <v>44799</v>
       </c>
       <c r="Q11" s="71"/>
       <c r="R11" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -3697,16 +3679,16 @@
     </row>
     <row r="12" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>10</v>
@@ -3743,29 +3725,26 @@
         <v>0.13</v>
       </c>
       <c r="O12" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P12" s="71">
         <v>44890</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="V12" s="156" t="s">
-        <v>158</v>
-      </c>
       <c r="W12" s="156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y12" s="173">
         <v>44931</v>
@@ -3773,16 +3752,16 @@
     </row>
     <row r="13" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>10</v>
@@ -3819,23 +3798,20 @@
         <v>0.13</v>
       </c>
       <c r="O13" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P13" s="71">
         <v>44890</v>
       </c>
       <c r="Q13" s="71"/>
       <c r="R13" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -3849,16 +3825,16 @@
     </row>
     <row r="14" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="62" t="s">
         <v>10</v>
@@ -3895,17 +3871,14 @@
         <v>0.13</v>
       </c>
       <c r="O14" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P14" s="71">
         <v>44890</v>
       </c>
       <c r="Q14" s="71"/>
       <c r="R14" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -3928,16 +3901,16 @@
     </row>
     <row r="15" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>10</v>
@@ -3974,17 +3947,14 @@
         <v>0.13</v>
       </c>
       <c r="O15" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P15" s="71">
         <v>44890</v>
       </c>
       <c r="Q15" s="71"/>
       <c r="R15" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S15" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -4007,16 +3977,16 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="62" t="s">
         <v>11</v>
@@ -4053,14 +4023,14 @@
         <v>0.13</v>
       </c>
       <c r="O16" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P16" s="71">
         <v>44890</v>
       </c>
       <c r="Q16" s="71"/>
       <c r="R16" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -4068,16 +4038,16 @@
     </row>
     <row r="17" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D17" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="62" t="s">
         <v>10</v>
@@ -4117,7 +4087,7 @@
       <c r="P17" s="71"/>
       <c r="Q17" s="71"/>
       <c r="R17" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -4128,16 +4098,16 @@
     </row>
     <row r="18" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>10</v>
@@ -4177,10 +4147,7 @@
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
       <c r="R18" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -4191,16 +4158,16 @@
     </row>
     <row r="19" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D19" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>10</v>
@@ -4240,10 +4207,7 @@
       <c r="P19" s="71"/>
       <c r="Q19" s="71"/>
       <c r="R19" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -4254,16 +4218,16 @@
     </row>
     <row r="20" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D20" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>10</v>
@@ -4303,10 +4267,7 @@
       <c r="P20" s="71"/>
       <c r="Q20" s="71"/>
       <c r="R20" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -4317,16 +4278,16 @@
     </row>
     <row r="21" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>10</v>
@@ -4366,10 +4327,7 @@
       <c r="P21" s="71"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S21" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -4380,16 +4338,16 @@
     </row>
     <row r="22" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D22" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>10</v>
@@ -4429,10 +4387,7 @@
       <c r="P22" s="71"/>
       <c r="Q22" s="71"/>
       <c r="R22" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -4443,16 +4398,16 @@
     </row>
     <row r="23" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D23" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>10</v>
@@ -4492,10 +4447,7 @@
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -4506,16 +4458,16 @@
     </row>
     <row r="24" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="62" t="s">
         <v>10</v>
@@ -4555,10 +4507,7 @@
       <c r="P24" s="71"/>
       <c r="Q24" s="71"/>
       <c r="R24" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -4569,16 +4518,16 @@
     </row>
     <row r="25" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D25" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>10</v>
@@ -4620,10 +4569,7 @@
       </c>
       <c r="Q25" s="71"/>
       <c r="R25" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S25" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -4634,16 +4580,16 @@
     </row>
     <row r="26" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D26" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>10</v>
@@ -4680,17 +4626,14 @@
         <v>0.13</v>
       </c>
       <c r="O26" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="71">
         <v>44826</v>
       </c>
       <c r="Q26" s="71"/>
       <c r="R26" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -4710,16 +4653,16 @@
     </row>
     <row r="27" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>10</v>
@@ -4756,29 +4699,26 @@
         <v>0.13</v>
       </c>
       <c r="O27" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P27" s="71">
         <v>44890</v>
       </c>
       <c r="Q27" s="71"/>
       <c r="R27" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V27" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W27" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y27" s="173">
         <v>44931</v>
@@ -4786,16 +4726,16 @@
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D28" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>10</v>
@@ -4832,23 +4772,20 @@
         <v>0.13</v>
       </c>
       <c r="O28" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="71">
         <v>44936</v>
       </c>
       <c r="Q28" s="71"/>
       <c r="R28" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S28" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V28" s="12">
         <v>0</v>
@@ -4862,16 +4799,16 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D29" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="62" t="s">
         <v>10</v>
@@ -4908,17 +4845,14 @@
         <v>0.13</v>
       </c>
       <c r="O29" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="71">
         <v>44936</v>
       </c>
       <c r="Q29" s="71"/>
       <c r="R29" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S29" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -4941,16 +4875,16 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="62" t="s">
         <v>10</v>
@@ -4987,17 +4921,14 @@
         <v>0.13</v>
       </c>
       <c r="O30" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P30" s="71">
         <v>44936</v>
       </c>
       <c r="Q30" s="71"/>
       <c r="R30" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S30" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -5020,16 +4951,16 @@
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>91</v>
-      </c>
       <c r="D31" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>11</v>
@@ -5066,14 +4997,14 @@
         <v>0.13</v>
       </c>
       <c r="O31" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P31" s="71">
         <v>44936</v>
       </c>
       <c r="Q31" s="71"/>
       <c r="R31" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -5081,16 +5012,16 @@
     </row>
     <row r="32" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>10</v>
@@ -5130,7 +5061,7 @@
       <c r="P32" s="71"/>
       <c r="Q32" s="71"/>
       <c r="R32" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -5141,16 +5072,16 @@
     </row>
     <row r="33" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="62" t="s">
         <v>10</v>
@@ -5190,10 +5121,7 @@
       <c r="P33" s="71"/>
       <c r="Q33" s="71"/>
       <c r="R33" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S33" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -5204,16 +5132,16 @@
     </row>
     <row r="34" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="62" t="s">
         <v>10</v>
@@ -5253,10 +5181,7 @@
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S34" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -5267,16 +5192,16 @@
     </row>
     <row r="35" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="62" t="s">
         <v>10</v>
@@ -5316,10 +5241,7 @@
       <c r="P35" s="71"/>
       <c r="Q35" s="71"/>
       <c r="R35" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S35" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -5330,16 +5252,16 @@
     </row>
     <row r="36" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="62" t="s">
         <v>10</v>
@@ -5379,10 +5301,7 @@
       <c r="P36" s="71"/>
       <c r="Q36" s="71"/>
       <c r="R36" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S36" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -5393,16 +5312,16 @@
     </row>
     <row r="37" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>10</v>
@@ -5442,10 +5361,7 @@
       <c r="P37" s="71"/>
       <c r="Q37" s="71"/>
       <c r="R37" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S37" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -5456,16 +5372,16 @@
     </row>
     <row r="38" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>10</v>
@@ -5505,10 +5421,7 @@
       <c r="P38" s="71"/>
       <c r="Q38" s="71"/>
       <c r="R38" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S38" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -5519,16 +5432,16 @@
     </row>
     <row r="39" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="62" t="s">
         <v>10</v>
@@ -5568,10 +5481,7 @@
       <c r="P39" s="71"/>
       <c r="Q39" s="71"/>
       <c r="R39" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S39" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -5582,16 +5492,16 @@
     </row>
     <row r="40" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="62" t="s">
         <v>10</v>
@@ -5633,10 +5543,7 @@
       </c>
       <c r="Q40" s="71"/>
       <c r="R40" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S40" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -5647,16 +5554,16 @@
     </row>
     <row r="41" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="62" t="s">
         <v>10</v>
@@ -5693,17 +5600,14 @@
         <v>0.13</v>
       </c>
       <c r="O41" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P41" s="71">
         <v>44830</v>
       </c>
       <c r="Q41" s="71"/>
       <c r="R41" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S41" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -5723,16 +5627,16 @@
     </row>
     <row r="42" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>94</v>
-      </c>
       <c r="D42" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>10</v>
@@ -5772,10 +5676,7 @@
       <c r="P42" s="71"/>
       <c r="Q42" s="71"/>
       <c r="R42" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S42" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -5786,16 +5687,16 @@
     </row>
     <row r="43" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>94</v>
-      </c>
       <c r="D43" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="62" t="s">
         <v>10</v>
@@ -5835,10 +5736,7 @@
       <c r="P43" s="71"/>
       <c r="Q43" s="71"/>
       <c r="R43" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S43" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -5849,16 +5747,16 @@
     </row>
     <row r="44" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>94</v>
-      </c>
       <c r="D44" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="62" t="s">
         <v>10</v>
@@ -5898,10 +5796,7 @@
       <c r="P44" s="71"/>
       <c r="Q44" s="71"/>
       <c r="R44" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S44" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -5912,16 +5807,16 @@
     </row>
     <row r="45" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D45" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="62" t="s">
         <v>10</v>
@@ -5963,10 +5858,7 @@
       </c>
       <c r="Q45" s="71"/>
       <c r="R45" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S45" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -5977,16 +5869,16 @@
     </row>
     <row r="46" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D46" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="62" t="s">
         <v>10</v>
@@ -6028,10 +5920,7 @@
       </c>
       <c r="Q46" s="71"/>
       <c r="R46" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S46" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -6042,16 +5931,16 @@
     </row>
     <row r="47" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D47" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="62" t="s">
         <v>10</v>
@@ -6093,10 +5982,7 @@
       </c>
       <c r="Q47" s="71"/>
       <c r="R47" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S47" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -6107,16 +5993,16 @@
     </row>
     <row r="48" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D48" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" s="62" t="s">
         <v>10</v>
@@ -6158,10 +6044,7 @@
       </c>
       <c r="Q48" s="71"/>
       <c r="R48" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S48" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -6172,16 +6055,16 @@
     </row>
     <row r="49" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D49" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="62" t="s">
         <v>10</v>
@@ -6218,17 +6101,14 @@
         <v>0.13</v>
       </c>
       <c r="O49" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P49" s="71">
         <v>44715</v>
       </c>
       <c r="Q49" s="71"/>
       <c r="R49" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S49" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -6248,16 +6128,16 @@
     </row>
     <row r="50" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D50" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="62" t="s">
         <v>10</v>
@@ -6294,29 +6174,26 @@
         <v>0.13</v>
       </c>
       <c r="O50" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P50" s="71">
         <v>44897</v>
       </c>
       <c r="Q50" s="71"/>
       <c r="R50" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S50" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
       <c r="U50" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="V50" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="V50" s="156" t="s">
-        <v>158</v>
-      </c>
       <c r="W50" s="156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y50" s="173">
         <v>44931</v>
@@ -6324,16 +6201,16 @@
     </row>
     <row r="51" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D51" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="62" t="s">
         <v>10</v>
@@ -6370,23 +6247,20 @@
         <v>0.13</v>
       </c>
       <c r="O51" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P51" s="71">
         <v>44897</v>
       </c>
       <c r="Q51" s="71"/>
       <c r="R51" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S51" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V51" s="12">
         <v>0</v>
@@ -6400,16 +6274,16 @@
     </row>
     <row r="52" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D52" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="62" t="s">
         <v>10</v>
@@ -6446,17 +6320,14 @@
         <v>0.13</v>
       </c>
       <c r="O52" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P52" s="71">
         <v>44897</v>
       </c>
       <c r="Q52" s="71"/>
       <c r="R52" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S52" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -6479,16 +6350,16 @@
     </row>
     <row r="53" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D53" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="62" t="s">
         <v>10</v>
@@ -6525,17 +6396,14 @@
         <v>0.13</v>
       </c>
       <c r="O53" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P53" s="71">
         <v>44897</v>
       </c>
       <c r="Q53" s="71"/>
       <c r="R53" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S53" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -6558,16 +6426,16 @@
     </row>
     <row r="54" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>105</v>
-      </c>
       <c r="D54" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="62" t="s">
         <v>11</v>
@@ -6604,14 +6472,14 @@
         <v>0.13</v>
       </c>
       <c r="O54" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P54" s="71">
         <v>44897</v>
       </c>
       <c r="Q54" s="71"/>
       <c r="R54" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -6619,16 +6487,16 @@
     </row>
     <row r="55" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="62" t="s">
         <v>10</v>
@@ -6668,7 +6536,7 @@
       <c r="P55" s="71"/>
       <c r="Q55" s="71"/>
       <c r="R55" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -6679,16 +6547,16 @@
     </row>
     <row r="56" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="62" t="s">
         <v>10</v>
@@ -6728,10 +6596,7 @@
       <c r="P56" s="71"/>
       <c r="Q56" s="71"/>
       <c r="R56" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S56" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -6742,16 +6607,16 @@
     </row>
     <row r="57" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>10</v>
@@ -6791,10 +6656,7 @@
       <c r="P57" s="71"/>
       <c r="Q57" s="71"/>
       <c r="R57" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S57" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -6805,16 +6667,16 @@
     </row>
     <row r="58" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" s="62" t="s">
         <v>10</v>
@@ -6854,10 +6716,7 @@
       <c r="P58" s="71"/>
       <c r="Q58" s="71"/>
       <c r="R58" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S58" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -6868,16 +6727,16 @@
     </row>
     <row r="59" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="62" t="s">
         <v>10</v>
@@ -6917,10 +6776,7 @@
       <c r="P59" s="71"/>
       <c r="Q59" s="71"/>
       <c r="R59" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S59" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -6931,16 +6787,16 @@
     </row>
     <row r="60" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="62" t="s">
         <v>10</v>
@@ -6980,10 +6836,7 @@
       <c r="P60" s="71"/>
       <c r="Q60" s="71"/>
       <c r="R60" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S60" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -6994,16 +6847,16 @@
     </row>
     <row r="61" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" s="62" t="s">
         <v>10</v>
@@ -7043,10 +6896,7 @@
       <c r="P61" s="71"/>
       <c r="Q61" s="71"/>
       <c r="R61" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S61" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -7057,16 +6907,16 @@
     </row>
     <row r="62" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62" s="62" t="s">
         <v>10</v>
@@ -7106,10 +6956,7 @@
       <c r="P62" s="71"/>
       <c r="Q62" s="71"/>
       <c r="R62" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S62" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -7120,16 +6967,16 @@
     </row>
     <row r="63" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" s="62" t="s">
         <v>10</v>
@@ -7171,10 +7018,7 @@
       </c>
       <c r="Q63" s="71"/>
       <c r="R63" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S63" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -7185,16 +7029,16 @@
     </row>
     <row r="64" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" s="62" t="s">
         <v>10</v>
@@ -7231,17 +7075,14 @@
         <v>0.13</v>
       </c>
       <c r="O64" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P64" s="71">
         <v>44824</v>
       </c>
       <c r="Q64" s="71"/>
       <c r="R64" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S64" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -7261,16 +7102,16 @@
     </row>
     <row r="65" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" s="62" t="s">
         <v>10</v>
@@ -7307,29 +7148,26 @@
         <v>0.13</v>
       </c>
       <c r="O65" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P65" s="71">
         <v>44887</v>
       </c>
       <c r="Q65" s="71"/>
       <c r="R65" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S65" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V65" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W65" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y65" s="173">
         <v>44931</v>
@@ -7337,16 +7175,16 @@
     </row>
     <row r="66" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="62" t="s">
         <v>10</v>
@@ -7383,23 +7221,20 @@
         <v>0.13</v>
       </c>
       <c r="O66" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P66" s="71">
         <v>44936</v>
       </c>
       <c r="Q66" s="71"/>
       <c r="R66" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S66" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="U66" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V66" s="12">
         <v>0</v>
@@ -7413,16 +7248,16 @@
     </row>
     <row r="67" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="62" t="s">
         <v>10</v>
@@ -7459,17 +7294,14 @@
         <v>0.13</v>
       </c>
       <c r="O67" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P67" s="71">
         <v>44936</v>
       </c>
       <c r="Q67" s="71"/>
       <c r="R67" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S67" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T67">
         <v>1</v>
@@ -7492,16 +7324,16 @@
     </row>
     <row r="68" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="62" t="s">
         <v>10</v>
@@ -7538,17 +7370,14 @@
         <v>0.13</v>
       </c>
       <c r="O68" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P68" s="71">
         <v>44936</v>
       </c>
       <c r="Q68" s="71"/>
       <c r="R68" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S68" s="12">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="T68">
         <v>1</v>
@@ -7571,16 +7400,16 @@
     </row>
     <row r="69" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="62" t="s">
         <v>11</v>
@@ -7617,14 +7446,14 @@
         <v>0.13</v>
       </c>
       <c r="O69" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P69" s="71">
         <v>44936</v>
       </c>
       <c r="Q69" s="71"/>
       <c r="R69" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -7632,16 +7461,16 @@
     </row>
     <row r="70" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D70" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="62" t="s">
         <v>10</v>
@@ -7681,10 +7510,7 @@
       <c r="P70" s="71"/>
       <c r="Q70" s="71"/>
       <c r="R70" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S70" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -7695,16 +7521,16 @@
     </row>
     <row r="71" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D71" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" s="62" t="s">
         <v>10</v>
@@ -7744,10 +7570,7 @@
       <c r="P71" s="71"/>
       <c r="Q71" s="71"/>
       <c r="R71" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S71" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T71">
         <v>1</v>
@@ -7758,16 +7581,16 @@
     </row>
     <row r="72" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D72" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" s="62" t="s">
         <v>10</v>
@@ -7807,10 +7630,7 @@
       <c r="P72" s="71"/>
       <c r="Q72" s="71"/>
       <c r="R72" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S72" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T72">
         <v>1</v>
@@ -7821,16 +7641,16 @@
     </row>
     <row r="73" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D73" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="62" t="s">
         <v>10</v>
@@ -7870,10 +7690,7 @@
       <c r="P73" s="71"/>
       <c r="Q73" s="71"/>
       <c r="R73" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S73" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -7884,16 +7701,16 @@
     </row>
     <row r="74" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D74" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" s="62" t="s">
         <v>10</v>
@@ -7935,10 +7752,7 @@
       </c>
       <c r="Q74" s="71"/>
       <c r="R74" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S74" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -7949,16 +7763,16 @@
     </row>
     <row r="75" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D75" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E75" s="62" t="s">
         <v>10</v>
@@ -8000,10 +7814,7 @@
       </c>
       <c r="Q75" s="71"/>
       <c r="R75" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S75" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -8014,16 +7825,16 @@
     </row>
     <row r="76" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D76" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E76" s="62" t="s">
         <v>10</v>
@@ -8065,10 +7876,7 @@
       </c>
       <c r="Q76" s="71"/>
       <c r="R76" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S76" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T76">
         <v>1</v>
@@ -8079,16 +7887,16 @@
     </row>
     <row r="77" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D77" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77" s="62" t="s">
         <v>10</v>
@@ -8130,10 +7938,7 @@
       </c>
       <c r="Q77" s="71"/>
       <c r="R77" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S77" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T77">
         <v>1</v>
@@ -8144,16 +7949,16 @@
     </row>
     <row r="78" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D78" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E78" s="62" t="s">
         <v>10</v>
@@ -8190,17 +7995,14 @@
         <v>0.13</v>
       </c>
       <c r="O78" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P78" s="71">
         <v>44868</v>
       </c>
       <c r="Q78" s="71"/>
       <c r="R78" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S78" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T78">
         <v>1</v>
@@ -8220,16 +8022,16 @@
     </row>
     <row r="79" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D79" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="62" t="s">
         <v>10</v>
@@ -8266,29 +8068,26 @@
         <v>0.13</v>
       </c>
       <c r="O79" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P79" s="71">
         <v>44868</v>
       </c>
       <c r="Q79" s="71"/>
       <c r="R79" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S79" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T79">
         <v>1</v>
       </c>
       <c r="U79" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="V79" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="V79" s="156" t="s">
-        <v>158</v>
-      </c>
       <c r="W79" s="156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y79" s="173">
         <v>44931</v>
@@ -8296,16 +8095,16 @@
     </row>
     <row r="80" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D80" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E80" s="62" t="s">
         <v>10</v>
@@ -8342,23 +8141,20 @@
         <v>0.13</v>
       </c>
       <c r="O80" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P80" s="71">
         <v>44949</v>
       </c>
       <c r="Q80" s="71"/>
       <c r="R80" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S80" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T80">
         <v>1</v>
       </c>
       <c r="U80" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V80" s="12">
         <v>0</v>
@@ -8372,16 +8168,16 @@
     </row>
     <row r="81" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" s="62" t="s">
         <v>10</v>
@@ -8418,17 +8214,14 @@
         <v>0.13</v>
       </c>
       <c r="O81" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P81" s="71">
         <v>44949</v>
       </c>
       <c r="Q81" s="71"/>
       <c r="R81" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S81" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T81">
         <v>1</v>
@@ -8451,16 +8244,16 @@
     </row>
     <row r="82" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="62" t="s">
         <v>10</v>
@@ -8497,17 +8290,14 @@
         <v>0.13</v>
       </c>
       <c r="O82" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P82" s="71">
         <v>44949</v>
       </c>
       <c r="Q82" s="71"/>
       <c r="R82" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S82" s="12">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="T82">
         <v>1</v>
@@ -8530,16 +8320,16 @@
     </row>
     <row r="83" spans="1:25" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>97</v>
-      </c>
       <c r="D83" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="62" t="s">
         <v>11</v>
@@ -8576,14 +8366,14 @@
         <v>0.13</v>
       </c>
       <c r="O83" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P83" s="71">
         <v>45015</v>
       </c>
       <c r="Q83" s="71"/>
       <c r="R83" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T83">
         <v>1</v>
@@ -8631,7 +8421,7 @@
     </row>
     <row r="86" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="73"/>
       <c r="C86" s="73"/>
@@ -8690,16 +8480,16 @@
     </row>
     <row r="88" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="47" t="s">
         <v>78</v>
-      </c>
-      <c r="B88" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="47" t="s">
-        <v>79</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>10</v>
@@ -8735,33 +8525,33 @@
       <c r="O88" s="91"/>
       <c r="P88" s="48"/>
       <c r="Q88" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R88" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S88" t="s">
+        <v>170</v>
       </c>
       <c r="T88">
         <v>1</v>
       </c>
-      <c r="X88" t="s">
-        <v>63</v>
-      </c>
       <c r="Y88" s="174">
         <v>44644</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="62" t="s">
         <v>10</v>
@@ -8797,33 +8587,33 @@
       <c r="O89" s="91"/>
       <c r="P89" s="48"/>
       <c r="Q89" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R89" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S89" t="s">
+        <v>170</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
-      <c r="X89" t="s">
-        <v>63</v>
-      </c>
       <c r="Y89" s="174">
         <v>44658</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E90" s="62" t="s">
         <v>10</v>
@@ -8859,33 +8649,33 @@
       <c r="O90" s="91"/>
       <c r="P90" s="48"/>
       <c r="Q90" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R90" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S90" t="s">
+        <v>170</v>
       </c>
       <c r="T90">
         <v>1</v>
       </c>
-      <c r="X90" t="s">
-        <v>63</v>
-      </c>
       <c r="Y90" s="174">
         <v>44693</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E91" s="62" t="s">
         <v>10</v>
@@ -8921,33 +8711,33 @@
       <c r="O91" s="91"/>
       <c r="P91" s="48"/>
       <c r="Q91" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R91" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S91" t="s">
+        <v>170</v>
       </c>
       <c r="T91">
         <v>1</v>
       </c>
-      <c r="X91" t="s">
-        <v>63</v>
-      </c>
       <c r="Y91" s="174">
         <v>44735</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" s="62" t="s">
         <v>10</v>
@@ -8983,33 +8773,33 @@
       <c r="O92" s="91"/>
       <c r="P92" s="48"/>
       <c r="Q92" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R92" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S92" t="s">
+        <v>170</v>
       </c>
       <c r="T92">
         <v>1</v>
       </c>
-      <c r="X92" t="s">
-        <v>63</v>
-      </c>
       <c r="Y92" s="174">
         <v>44754</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E93" s="62" t="s">
         <v>10</v>
@@ -9045,33 +8835,33 @@
       <c r="O93" s="91"/>
       <c r="P93" s="48"/>
       <c r="Q93" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R93" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S93" t="s">
+        <v>170</v>
       </c>
       <c r="T93">
         <v>1</v>
       </c>
-      <c r="X93" t="s">
-        <v>63</v>
-      </c>
       <c r="Y93" s="174">
         <v>44789</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>10</v>
@@ -9107,33 +8897,33 @@
       <c r="O94" s="91"/>
       <c r="P94" s="48"/>
       <c r="Q94" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R94" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S94" t="s">
+        <v>170</v>
       </c>
       <c r="T94">
         <v>1</v>
       </c>
-      <c r="X94" t="s">
-        <v>63</v>
-      </c>
       <c r="Y94" s="174">
         <v>44817</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E95" s="62" t="s">
         <v>10</v>
@@ -9169,33 +8959,33 @@
       <c r="O95" s="91"/>
       <c r="P95" s="48"/>
       <c r="Q95" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R95" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S95" t="s">
+        <v>170</v>
       </c>
       <c r="T95">
         <v>1</v>
       </c>
-      <c r="X95" t="s">
-        <v>63</v>
-      </c>
       <c r="Y95" s="174">
         <v>44847</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E96" s="62" t="s">
         <v>10</v>
@@ -9231,33 +9021,33 @@
       <c r="O96" s="91"/>
       <c r="P96" s="48"/>
       <c r="Q96" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R96" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S96" t="s">
+        <v>170</v>
       </c>
       <c r="T96">
         <v>1</v>
       </c>
-      <c r="X96" t="s">
-        <v>63</v>
-      </c>
       <c r="Y96" s="174">
         <v>44874</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E97" s="62" t="s">
         <v>10</v>
@@ -9293,33 +9083,33 @@
       <c r="O97" s="91"/>
       <c r="P97" s="48"/>
       <c r="Q97" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R97" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S97" t="s">
+        <v>170</v>
       </c>
       <c r="T97">
         <v>1</v>
       </c>
-      <c r="X97" t="s">
-        <v>63</v>
-      </c>
       <c r="Y97" s="174">
         <v>44907</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>10</v>
@@ -9357,33 +9147,33 @@
         <v>44894</v>
       </c>
       <c r="Q98" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R98" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S98" t="s">
+        <v>170</v>
       </c>
       <c r="T98">
         <v>1</v>
       </c>
-      <c r="X98" t="s">
-        <v>63</v>
-      </c>
       <c r="Y98" s="174">
         <v>44942</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>10</v>
@@ -9421,33 +9211,33 @@
         <v>44894</v>
       </c>
       <c r="Q99" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R99" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S99" t="s">
+        <v>170</v>
       </c>
       <c r="T99">
         <v>1</v>
       </c>
-      <c r="X99" t="s">
-        <v>63</v>
-      </c>
       <c r="Y99" s="174">
         <v>44967</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E100" s="62" t="s">
         <v>10</v>
@@ -9485,33 +9275,33 @@
         <v>44894</v>
       </c>
       <c r="Q100" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R100" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S100" t="s">
+        <v>170</v>
       </c>
       <c r="T100">
         <v>1</v>
       </c>
-      <c r="X100" t="s">
-        <v>63</v>
-      </c>
       <c r="Y100" s="174">
         <v>44994</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E101" s="62" t="s">
         <v>11</v>
@@ -9549,33 +9339,33 @@
         <v>44894</v>
       </c>
       <c r="Q101" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R101" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S101" t="s">
+        <v>170</v>
       </c>
       <c r="T101">
         <v>1</v>
       </c>
-      <c r="X101" t="s">
-        <v>63</v>
-      </c>
       <c r="Y101" s="174">
         <v>45033</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E102" s="62" t="s">
         <v>11</v>
@@ -9614,30 +9404,30 @@
       </c>
       <c r="Q102" s="48"/>
       <c r="R102" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S102" t="s">
+        <v>170</v>
       </c>
       <c r="T102">
         <v>1</v>
       </c>
-      <c r="X102" t="s">
-        <v>63</v>
-      </c>
       <c r="Y102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>10</v>
@@ -9673,33 +9463,33 @@
       <c r="O103" s="91"/>
       <c r="P103" s="48"/>
       <c r="Q103" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R103" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S103" t="s">
+        <v>170</v>
       </c>
       <c r="T103">
         <v>1</v>
       </c>
-      <c r="X103" t="s">
-        <v>63</v>
-      </c>
       <c r="Y103" s="174">
         <v>44658</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E104" s="62" t="s">
         <v>10</v>
@@ -9735,33 +9525,33 @@
       <c r="O104" s="91"/>
       <c r="P104" s="48"/>
       <c r="Q104" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R104" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S104" t="s">
+        <v>170</v>
       </c>
       <c r="T104">
         <v>1</v>
       </c>
-      <c r="X104" t="s">
-        <v>63</v>
-      </c>
       <c r="Y104" s="174">
         <v>44693</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E105" s="62" t="s">
         <v>10</v>
@@ -9797,33 +9587,33 @@
       <c r="O105" s="91"/>
       <c r="P105" s="48"/>
       <c r="Q105" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R105" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S105" t="s">
+        <v>170</v>
       </c>
       <c r="T105">
         <v>1</v>
       </c>
-      <c r="X105" t="s">
-        <v>63</v>
-      </c>
       <c r="Y105" s="174">
         <v>44735</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E106" s="62" t="s">
         <v>10</v>
@@ -9859,33 +9649,33 @@
       <c r="O106" s="91"/>
       <c r="P106" s="48"/>
       <c r="Q106" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R106" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S106" t="s">
+        <v>170</v>
       </c>
       <c r="T106">
         <v>1</v>
       </c>
-      <c r="X106" t="s">
-        <v>63</v>
-      </c>
       <c r="Y106" s="174">
         <v>44754</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="62" t="s">
         <v>10</v>
@@ -9923,33 +9713,33 @@
         <v>44734</v>
       </c>
       <c r="Q107" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R107" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S107" t="s">
+        <v>170</v>
       </c>
       <c r="T107">
         <v>1</v>
       </c>
-      <c r="X107" t="s">
-        <v>63</v>
-      </c>
       <c r="Y107" s="174">
         <v>44789</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B108" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E108" s="62" t="s">
         <v>10</v>
@@ -9987,33 +9777,33 @@
         <v>44734</v>
       </c>
       <c r="Q108" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R108" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S108" t="s">
+        <v>170</v>
       </c>
       <c r="T108">
         <v>1</v>
       </c>
-      <c r="X108" t="s">
-        <v>63</v>
-      </c>
       <c r="Y108" s="174">
         <v>44817</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E109" s="62" t="s">
         <v>10</v>
@@ -10051,33 +9841,33 @@
         <v>44734</v>
       </c>
       <c r="Q109" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R109" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S109" t="s">
+        <v>170</v>
       </c>
       <c r="T109">
         <v>1</v>
       </c>
-      <c r="X109" t="s">
-        <v>63</v>
-      </c>
       <c r="Y109" s="174">
         <v>44847</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E110" s="62" t="s">
         <v>10</v>
@@ -10115,33 +9905,33 @@
         <v>44734</v>
       </c>
       <c r="Q110" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R110" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S110" t="s">
+        <v>170</v>
       </c>
       <c r="T110">
         <v>1</v>
       </c>
-      <c r="X110" t="s">
-        <v>63</v>
-      </c>
       <c r="Y110" s="174">
         <v>44874</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E111" s="62" t="s">
         <v>10</v>
@@ -10180,13 +9970,13 @@
       </c>
       <c r="Q111" s="48"/>
       <c r="R111" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="S111" t="s">
+        <v>170</v>
       </c>
       <c r="T111">
         <v>1</v>
-      </c>
-      <c r="X111" t="s">
-        <v>63</v>
       </c>
       <c r="Y111" s="174">
         <v>44907</v>
@@ -11015,7 +10805,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{3E226D73-3651-4666-99CD-A896C77B5D2D}">
+      <autoFilter ref="A4:AV400" xr:uid="{629C51AE-538D-417E-BFFC-20BF04E91F12}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -11102,7 +10892,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="15" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="18"/>
@@ -11112,7 +10902,7 @@
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="18"/>
@@ -11122,7 +10912,7 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="18"/>
@@ -11132,7 +10922,7 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="89"/>
     </row>
@@ -11153,7 +10943,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="84" t="s">
         <v>5</v>
@@ -11162,7 +10952,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -11170,16 +10960,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="143">
         <v>4500002301</v>
@@ -11199,16 +10989,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="143">
         <v>4500002385</v>
@@ -11228,16 +11018,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="144">
         <v>4500002638</v>
@@ -11257,16 +11047,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="F9" s="144">
         <v>4500002641</v>
@@ -11286,19 +11076,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="G10" s="172">
         <v>135659</v>
@@ -11315,19 +11105,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>117</v>
-      </c>
       <c r="F11" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="172">
         <v>5890626</v>
@@ -11344,19 +11134,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="172">
         <v>29629</v>
@@ -11373,19 +11163,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="172">
         <v>3447</v>
@@ -11402,19 +11192,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="172">
         <v>67182</v>
@@ -11431,16 +11221,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="F15" s="144">
         <v>202301252524</v>
@@ -11460,16 +11250,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>162</v>
       </c>
       <c r="F16" s="144"/>
       <c r="G16" s="29">
@@ -11562,7 +11352,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{A551DA35-42D6-42DD-9D90-DEA92C5D920C}"/>
+      <autoFilter ref="A41:N455" xr:uid="{7FBD8977-5358-43DA-99DF-7B9EF9531CA2}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="2">
@@ -11592,87 +11382,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="155" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -11703,30 +11493,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="C1" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="161" t="s">
-        <v>148</v>
-      </c>
       <c r="D1" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="161" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="161" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="164">
         <v>579300</v>
@@ -11737,13 +11527,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="163" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="164">
         <v>821300</v>
@@ -11754,13 +11544,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="163" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="164">
         <v>500000</v>
@@ -11771,13 +11561,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="164">
         <v>594000</v>
@@ -11788,13 +11578,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="164">
         <v>690001</v>
